--- a/统计.xlsx
+++ b/统计.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,6 +930,9 @@
       <c r="A38" s="1">
         <v>43220</v>
       </c>
+      <c r="B38">
+        <v>-11661.85</v>
+      </c>
       <c r="E38" s="1">
         <v>43220</v>
       </c>
@@ -969,7 +972,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="2">
         <f>SUM(B4:B52)</f>
-        <v>16939.89</v>
+        <v>5278.0399999999991</v>
       </c>
       <c r="D43" s="2"/>
       <c r="G43" s="3">
